--- a/Anmeldungen/TDA_Course_Registration.xlsx
+++ b/Anmeldungen/TDA_Course_Registration.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="268">
   <si>
     <t>Zeitstempel</t>
   </si>
@@ -825,13 +825,19 @@
   </si>
   <si>
     <t>I would prefer to take part in the lecture and tutorial onsite, but unfortunately I have an appointement to attend on tuesday and wednesday from 14-16 o'clock. So if there are more than 20 people, I would participate online! If it's possible I would be very grateful to get acess to the course material of tuesday before, so I could recap the lecture maybe on tuesday moring already to be prepared for the tuturials! I'm sorry for causing any inconveniance!   NEEDS COMPUTER IN CIP POOL</t>
+  </si>
+  <si>
+    <t>Benjamin Waßermann</t>
+  </si>
+  <si>
+    <t>benjamin.wassermann@kit.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -846,39 +852,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -886,46 +859,53 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -960,44 +940,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,70 +954,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1287,2706 +1243,2749 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.53125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.53125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.86328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.46484375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="14.46484375" style="2"/>
-    <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.46484375" style="2"/>
-    <col min="11" max="11" width="17.46484375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="14.46484375" style="2"/>
+    <col min="1" max="1" width="16.53125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="43.53125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="49.86328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="37.46484375" style="16" customWidth="1"/>
+    <col min="5" max="8" width="14.46484375" style="16"/>
+    <col min="9" max="9" width="15" style="16" customWidth="1"/>
+    <col min="10" max="10" width="14.46484375" style="16"/>
+    <col min="11" max="11" width="17.46484375" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="14.46484375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:13" ht="11.65">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12.75">
-      <c r="A2" s="25">
+    <row r="2" spans="1:13" ht="11.65">
+      <c r="A2" s="8">
         <v>44100.468668981484</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="24"/>
-    </row>
-    <row r="3" spans="1:13" ht="12.75">
-      <c r="A3" s="25">
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="11.65">
+      <c r="A3" s="8">
         <v>44100.537919791663</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="24" t="s">
+      <c r="K3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:13" ht="12.75">
-      <c r="A4" s="25">
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="11.65">
+      <c r="A4" s="8">
         <v>44100.673720196763</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="24" t="s">
+      <c r="K4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75">
-      <c r="A5" s="25">
+    <row r="5" spans="1:13" ht="11.65">
+      <c r="A5" s="8">
         <v>44100.69461943287</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="24" t="s">
+      <c r="K5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="1:13" ht="12.75">
-      <c r="A6" s="25">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="11.65">
+      <c r="A6" s="8">
         <v>44100.735617361112</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="24"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
-      <c r="A7" s="25">
+      <c r="A7" s="8">
         <v>44102.429341527779</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75">
-      <c r="A8" s="25">
+    <row r="8" spans="1:13" ht="11.65">
+      <c r="A8" s="8">
         <v>44103.446783541665</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="24" t="s">
+      <c r="K8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75">
-      <c r="A9" s="25">
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="11.65">
+      <c r="A9" s="8">
         <v>44105.439226921299</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="24" t="s">
+      <c r="K9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75">
-      <c r="A10" s="25">
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.65">
+      <c r="A10" s="8">
         <v>44105.439276319448</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="24" t="s">
+      <c r="K10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" spans="1:13" ht="12.75">
-      <c r="A11" s="25">
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="11.65">
+      <c r="A11" s="8">
         <v>44105.497157858801</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="24" t="s">
+      <c r="K11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" ht="12.75">
-      <c r="A12" s="25">
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="11.65">
+      <c r="A12" s="8">
         <v>44105.527309849538</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="24" t="s">
+      <c r="K12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="1:13" ht="12.75">
-      <c r="A13" s="25">
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="11.65">
+      <c r="A13" s="8">
         <v>44105.600384490739</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="24" t="s">
+      <c r="K13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="1:13" ht="12.75">
-      <c r="A14" s="25">
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="11.65">
+      <c r="A14" s="8">
         <v>44105.655352175927</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="24" t="s">
+      <c r="K14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="1:13" ht="12.75">
-      <c r="A15" s="25">
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" ht="11.65">
+      <c r="A15" s="8">
         <v>44105.708680972224</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24" t="s">
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="24" t="s">
+      <c r="K15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" ht="12.75">
-      <c r="A16" s="25">
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" ht="11.65">
+      <c r="A16" s="8">
         <v>44105.935884571758</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="24" t="s">
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="24" t="s">
+      <c r="K16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
-      <c r="A17" s="25">
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" ht="11.65">
+      <c r="A17" s="8">
         <v>44106.068361307873</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="24" t="s">
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="24" t="s">
+      <c r="K17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="24"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
-      <c r="A18" s="25">
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" ht="11.65">
+      <c r="A18" s="8">
         <v>44106.736748402778</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="24" t="s">
+      <c r="E18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="24" t="s">
+      <c r="K18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" spans="1:13" ht="12.75">
-      <c r="A19" s="25">
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" ht="11.65">
+      <c r="A19" s="8">
         <v>44108.469786122689</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="24" t="s">
+      <c r="E19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="24" t="s">
+      <c r="K19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="24"/>
-    </row>
-    <row r="20" spans="1:13" ht="12.75">
-      <c r="A20" s="25">
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" ht="11.65">
+      <c r="A20" s="8">
         <v>44108.915693252318</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="24" t="s">
+      <c r="E20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="24" t="s">
+      <c r="K20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
-      <c r="A21" s="25">
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="11.65">
+      <c r="A21" s="8">
         <v>44108.959488194443</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="24" t="s">
+      <c r="E21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="24" t="s">
+      <c r="K21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="22" spans="1:13" ht="12.75">
-      <c r="A22" s="25">
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" ht="11.65">
+      <c r="A22" s="8">
         <v>44109.401946689817</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24" t="s">
+      <c r="E22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="24" t="s">
+      <c r="K22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="24"/>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
-      <c r="A23" s="25">
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" ht="11.65">
+      <c r="A23" s="8">
         <v>44109.440040520829</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="24" t="s">
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="24" t="s">
+      <c r="K23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.75">
-      <c r="A24" s="25">
+    <row r="24" spans="1:13" ht="11.65">
+      <c r="A24" s="8">
         <v>44109.511069768516</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24" t="s">
+      <c r="E24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="24" t="s">
+      <c r="K24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="24"/>
-    </row>
-    <row r="25" spans="1:13" ht="12.75">
-      <c r="A25" s="25">
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" ht="11.65">
+      <c r="A25" s="8">
         <v>44109.578567233795</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="24"/>
-    </row>
-    <row r="26" spans="1:13" ht="12.75">
-      <c r="A26" s="25">
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" ht="11.65">
+      <c r="A26" s="8">
         <v>44109.815573229163</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="24" t="s">
+      <c r="K26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="24"/>
-    </row>
-    <row r="27" spans="1:13" ht="12.75">
-      <c r="A27" s="25">
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:13" ht="11.65">
+      <c r="A27" s="8">
         <v>44110.498349525464</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="24" t="s">
+      <c r="K27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="24"/>
-    </row>
-    <row r="28" spans="1:13" ht="12.75">
-      <c r="A28" s="25">
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" ht="11.65">
+      <c r="A28" s="8">
         <v>44110.658213113427</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="24" t="s">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="24"/>
-    </row>
-    <row r="29" spans="1:13" ht="12.75">
-      <c r="A29" s="25">
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" ht="11.65">
+      <c r="A29" s="8">
         <v>44111.391610208331</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="24" t="s">
+      <c r="K29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="24"/>
-    </row>
-    <row r="30" spans="1:13" ht="12.75">
-      <c r="A30" s="25">
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" ht="11.65">
+      <c r="A30" s="8">
         <v>44111.432209282408</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="24" t="s">
+      <c r="E30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24" t="s">
+      <c r="K30" s="6"/>
+      <c r="L30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="1:13" ht="12.75">
-      <c r="A31" s="25">
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" ht="11.65">
+      <c r="A31" s="8">
         <v>44111.478326504628</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="24" t="s">
+      <c r="E31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="24" t="s">
+      <c r="K31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="1:13" ht="12.75">
-      <c r="A32" s="25">
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" ht="11.65">
+      <c r="A32" s="8">
         <v>44111.517249351848</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="24" t="s">
+      <c r="K32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="24"/>
-    </row>
-    <row r="33" spans="1:21" ht="12.75">
-      <c r="A33" s="25">
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="1:21" ht="11.65">
+      <c r="A33" s="8">
         <v>44111.612671979165</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24" t="s">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="24" t="s">
+      <c r="K33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M33" s="24"/>
-    </row>
-    <row r="34" spans="1:21" ht="12.75">
-      <c r="A34" s="25">
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:21" ht="11.65">
+      <c r="A34" s="8">
         <v>44112.431346574071</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="24" t="s">
+      <c r="E34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K34" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="24" t="s">
+      <c r="K34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M34" s="24"/>
-    </row>
-    <row r="35" spans="1:21" ht="12.75">
-      <c r="A35" s="25">
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:21" ht="11.65">
+      <c r="A35" s="8">
         <v>44112.470669120376</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="24" t="s">
+      <c r="E35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="L35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="24"/>
-    </row>
-    <row r="36" spans="1:21" ht="12.75">
-      <c r="A36" s="25">
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:21" ht="11.65">
+      <c r="A36" s="8">
         <v>44112.593801643518</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K36" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="24" t="s">
+      <c r="K36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M36" s="24"/>
-    </row>
-    <row r="37" spans="1:21" ht="12.75">
-      <c r="A37" s="25">
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:21" ht="11.65">
+      <c r="A37" s="8">
         <v>44112.992523530091</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="24" t="s">
+      <c r="E37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="24" t="s">
+      <c r="K37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M37" s="24"/>
-    </row>
-    <row r="38" spans="1:21" ht="12.75">
-      <c r="A38" s="25">
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:21" ht="11.65">
+      <c r="A38" s="8">
         <v>44113.551210381949</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="24" t="s">
+      <c r="E38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="24" t="s">
+      <c r="K38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M38" s="24"/>
-    </row>
-    <row r="39" spans="1:21" ht="12.75">
-      <c r="A39" s="25">
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:21" ht="11.65">
+      <c r="A39" s="8">
         <v>44113.552509189816</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="24" t="s">
+      <c r="E39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K39" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="24" t="s">
+      <c r="K39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M39" s="24" t="s">
+      <c r="M39" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="12.75">
-      <c r="A40" s="25">
+    <row r="40" spans="1:21" ht="11.65">
+      <c r="A40" s="8">
         <v>44113.562496493054</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K40" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="24" t="s">
+      <c r="K40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M40" s="24"/>
-    </row>
-    <row r="41" spans="1:21" ht="12.75">
-      <c r="A41" s="25">
+      <c r="M40" s="6"/>
+    </row>
+    <row r="41" spans="1:21" ht="11.65">
+      <c r="A41" s="8">
         <v>44113.570006689813</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="24" t="s">
+      <c r="E41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K41" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L41" s="24" t="s">
+      <c r="K41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="24"/>
-    </row>
-    <row r="42" spans="1:21" ht="12.75">
-      <c r="A42" s="25">
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:21" ht="11.65">
+      <c r="A42" s="8">
         <v>44113.591838043983</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="24" t="s">
+      <c r="E42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K42" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" s="24" t="s">
+      <c r="K42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="24"/>
-    </row>
-    <row r="43" spans="1:21" ht="12.75">
-      <c r="A43" s="25">
+      <c r="M42" s="6"/>
+    </row>
+    <row r="43" spans="1:21" ht="11.65">
+      <c r="A43" s="8">
         <v>44113.746113032408</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24" t="s">
+      <c r="E43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K43" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" s="24" t="s">
+      <c r="K43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="24"/>
-    </row>
-    <row r="44" spans="1:21" ht="12.75">
-      <c r="A44" s="25">
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:21" ht="11.65">
+      <c r="A44" s="8">
         <v>44114.496302372689</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K44" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" s="24" t="s">
+      <c r="K44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M44" s="24"/>
-    </row>
-    <row r="45" spans="1:21" ht="12.75">
-      <c r="A45" s="25">
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:21" ht="11.65">
+      <c r="A45" s="8">
         <v>44114.736488333336</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24" t="s">
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="24" t="s">
+      <c r="K45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M45" s="24"/>
-    </row>
-    <row r="46" spans="1:21" ht="12.75">
-      <c r="A46" s="25">
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:21" ht="11.65">
+      <c r="A46" s="8">
         <v>44115.963051354163</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H46" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K46" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" s="24" t="s">
+      <c r="K46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M46" s="24"/>
-    </row>
-    <row r="47" spans="1:21" ht="12.75">
-      <c r="A47" s="25">
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:21" ht="11.65">
+      <c r="A47" s="8">
         <v>44049.506905613423</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24" t="s">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K47" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" s="26" t="s">
+      <c r="K47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-    </row>
-    <row r="48" spans="1:21" ht="12.75">
-      <c r="A48" s="25">
+      <c r="M47" s="6"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+    </row>
+    <row r="48" spans="1:21" ht="11.65">
+      <c r="A48" s="8">
         <v>44048.399802997686</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24" t="s">
+      <c r="E48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="24" t="s">
+      <c r="I48" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K48" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="24" t="s">
+      <c r="K48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-    </row>
-    <row r="49" spans="1:21" ht="12.75">
-      <c r="A49" s="25">
+      <c r="M48" s="6"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+    </row>
+    <row r="49" spans="1:21" ht="11.65">
+      <c r="A49" s="8">
         <v>44046.43401646991</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24" t="s">
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="H49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="I49" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J49" s="24" t="s">
+      <c r="J49" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K49" s="24" t="s">
+      <c r="K49" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="L49" s="24" t="s">
+      <c r="L49" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M49" s="24" t="s">
+      <c r="M49" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-    </row>
-    <row r="50" spans="1:21" ht="12.75">
-      <c r="A50" s="25">
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+    </row>
+    <row r="50" spans="1:21" ht="11.65">
+      <c r="A50" s="8">
         <v>44054.526579120371</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24" t="s">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H50" s="24" t="s">
+      <c r="H50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="24" t="s">
+      <c r="K50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-    </row>
-    <row r="51" spans="1:21" ht="12.75">
-      <c r="A51" s="25">
+      <c r="M50" s="6"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+    </row>
+    <row r="51" spans="1:21" ht="11.65">
+      <c r="A51" s="8">
         <v>44046.517637858793</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24" t="s">
+      <c r="E51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H51" s="24" t="s">
+      <c r="H51" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K51" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" s="24" t="s">
+      <c r="K51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-    </row>
-    <row r="52" spans="1:21" ht="12.75">
-      <c r="A52" s="25">
+      <c r="M51" s="6"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+    </row>
+    <row r="52" spans="1:21" ht="11.65">
+      <c r="A52" s="8">
         <v>44046.398415243057</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24" t="s">
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I52" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="J52" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L52" s="24" t="s">
+      <c r="K52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M52" s="24"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-    </row>
-    <row r="53" spans="1:21" ht="12.75">
-      <c r="A53" s="25">
+      <c r="M52" s="6"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+    </row>
+    <row r="53" spans="1:21" ht="11.65">
+      <c r="A53" s="8">
         <v>44046.453074155092</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24" t="s">
+      <c r="E53" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="I53" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="24" t="s">
+      <c r="J53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K53" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L53" s="26" t="s">
+      <c r="K53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-    </row>
-    <row r="54" spans="1:21" ht="12.75">
-      <c r="A54" s="25">
+      <c r="M53" s="6"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+    </row>
+    <row r="54" spans="1:21" ht="11.65">
+      <c r="A54" s="8">
         <v>44046.402977222227</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E54" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24" t="s">
+      <c r="E54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H54" s="24" t="s">
+      <c r="H54" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="24" t="s">
+      <c r="I54" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="24" t="s">
+      <c r="J54" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K54" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="26" t="s">
+      <c r="K54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M54" s="24"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-    </row>
-    <row r="55" spans="1:21" ht="12.75">
-      <c r="A55" s="25">
+      <c r="M54" s="6"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+    </row>
+    <row r="55" spans="1:21" ht="11.65">
+      <c r="A55" s="8">
         <v>44047.502163032404</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E55" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24" t="s">
+      <c r="E55" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H55" s="24" t="s">
+      <c r="H55" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I55" s="24" t="s">
+      <c r="I55" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="24" t="s">
+      <c r="J55" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="K55" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" s="24" t="s">
+      <c r="K55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M55" s="24"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="1:21" ht="12.75">
-      <c r="A56" s="25">
+      <c r="M55" s="6"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+    </row>
+    <row r="56" spans="1:21" ht="11.65">
+      <c r="A56" s="8">
         <v>44053.313717835648</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24" t="s">
+      <c r="F56" s="6"/>
+      <c r="G56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="24" t="s">
+      <c r="H56" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I56" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J56" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K56" s="24" t="s">
+      <c r="K56" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L56" s="24" t="s">
+      <c r="L56" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M56" s="24"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="1:21" ht="12.75">
-      <c r="A57" s="25">
+      <c r="M56" s="6"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+    </row>
+    <row r="57" spans="1:21" ht="11.65">
+      <c r="A57" s="8">
         <v>44047.378897048606</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E57" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24" t="s">
+      <c r="E57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="24" t="s">
+      <c r="H57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="24" t="s">
+      <c r="I57" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="24" t="s">
+      <c r="J57" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K57" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="24" t="s">
+      <c r="K57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M57" s="26"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-    </row>
-    <row r="58" spans="1:21" ht="12.75">
-      <c r="A58" s="25">
+      <c r="M57" s="9"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+    </row>
+    <row r="58" spans="1:21" ht="11.65">
+      <c r="A58" s="8">
         <v>44046.587297731487</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24" t="s">
+      <c r="E58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H58" s="24" t="s">
+      <c r="H58" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="I58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="24" t="s">
+      <c r="J58" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K58" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="26" t="s">
+      <c r="K58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M58" s="24"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-    </row>
-    <row r="59" spans="1:21" ht="12.75">
-      <c r="A59" s="25">
+      <c r="M58" s="6"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+    </row>
+    <row r="59" spans="1:21" ht="11.65">
+      <c r="A59" s="8">
         <v>44046.516360925925</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24" t="s">
+      <c r="F59" s="6"/>
+      <c r="G59" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="24" t="s">
+      <c r="H59" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="I59" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J59" s="24" t="s">
+      <c r="J59" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="K59" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-    </row>
-    <row r="60" spans="1:21" ht="12.75">
-      <c r="A60" s="25">
+      <c r="K59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+    </row>
+    <row r="60" spans="1:21" ht="11.65">
+      <c r="A60" s="8">
         <v>44046.403535289355</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24" t="s">
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="24" t="s">
+      <c r="H60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="24" t="s">
+      <c r="I60" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J60" s="24" t="s">
+      <c r="J60" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="K60" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="24" t="s">
+      <c r="K60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M60" s="24"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-    </row>
-    <row r="61" spans="1:21" ht="12.75">
-      <c r="A61" s="28">
+      <c r="M60" s="6"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+    </row>
+    <row r="61" spans="1:21" ht="11.65">
+      <c r="A61" s="12">
         <v>44053.859084085649</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="24" t="s">
+      <c r="F61" s="10"/>
+      <c r="G61" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="H61" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="24" t="s">
+      <c r="I61" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="24" t="s">
+      <c r="J61" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K61" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" s="24" t="s">
+      <c r="K61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M61" s="29"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-    </row>
-    <row r="62" spans="1:21" ht="12.75">
-      <c r="A62" s="28">
+      <c r="M61" s="13"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+    </row>
+    <row r="62" spans="1:21" ht="11.65">
+      <c r="A62" s="12">
         <v>44047.415214027773</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="24" t="s">
+      <c r="F62" s="10"/>
+      <c r="G62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="24" t="s">
+      <c r="I62" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J62" s="24" t="s">
+      <c r="J62" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K62" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L62" s="24" t="s">
+      <c r="K62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M62" s="29"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-    </row>
-    <row r="63" spans="1:21" ht="12.75">
-      <c r="A63" s="28">
+      <c r="M62" s="13"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+    </row>
+    <row r="63" spans="1:21" ht="11.65">
+      <c r="A63" s="12">
         <v>44053.596691435188</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="24" t="s">
+      <c r="F63" s="10"/>
+      <c r="G63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="24" t="s">
+      <c r="H63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I63" s="24" t="s">
+      <c r="I63" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="J63" s="24" t="s">
+      <c r="J63" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K63" s="24" t="s">
+      <c r="K63" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L63" s="24" t="s">
+      <c r="L63" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M63" s="29"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-    </row>
-    <row r="64" spans="1:21" ht="12.75">
-      <c r="A64" s="28">
+      <c r="M63" s="13"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+    </row>
+    <row r="64" spans="1:21" ht="11.65">
+      <c r="A64" s="12">
         <v>44056.796313738421</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="24" t="s">
+      <c r="F64" s="10"/>
+      <c r="G64" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="24" t="s">
+      <c r="H64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="24" t="s">
+      <c r="I64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="24" t="s">
+      <c r="J64" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K64" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" s="24" t="s">
+      <c r="K64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M64" s="29"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-    </row>
-    <row r="65" spans="1:21" ht="12.75">
-      <c r="A65" s="28">
+      <c r="M64" s="13"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+    </row>
+    <row r="65" spans="1:21" ht="11.65">
+      <c r="A65" s="12">
         <v>44046.402206689818</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="E65" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="24" t="s">
+      <c r="E65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="24" t="s">
+      <c r="H65" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I65" s="24" t="s">
+      <c r="I65" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="J65" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K65" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" s="26" t="s">
+      <c r="K65" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M65" s="24"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A66" s="30">
+      <c r="A66" s="14">
         <v>44118.907002314816</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="31" t="s">
+      <c r="E66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="31" t="s">
+      <c r="G66" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="H66" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="31" t="s">
+      <c r="I66" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="31" t="s">
+      <c r="J66" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K66" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L66" s="31" t="s">
+      <c r="K66" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M66" s="31"/>
+      <c r="M66" s="15"/>
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
       <c r="P66" s="20"/>
       <c r="Q66" s="20"/>
       <c r="R66" s="20"/>
       <c r="S66" s="20"/>
+    </row>
+    <row r="67" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A67" s="21">
+        <v>44127.460497685184</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3998,8 +3997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4007,656 +4006,656 @@
     <col min="1" max="1" width="23.53125" customWidth="1"/>
     <col min="2" max="2" width="36.1328125" customWidth="1"/>
     <col min="3" max="3" width="43.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.46484375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" style="1" customWidth="1"/>
     <col min="8" max="8" width="72.46484375" customWidth="1"/>
     <col min="9" max="9" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="13.15">
-      <c r="A3" s="6" t="s">
+      <c r="I2" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="13.15">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13.15">
-      <c r="A5" s="6" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="13.15">
-      <c r="A6" s="6" t="s">
+      <c r="I5" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.15">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.15">
-      <c r="A8" s="6" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.15">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="13.15">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.15">
-      <c r="A11" s="6" t="s">
+      <c r="D10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="13.15">
-      <c r="A12" s="6" t="s">
+      <c r="I11" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="13.15">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="26.25">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="8" t="s">
+      <c r="E14" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.15">
-      <c r="A15" s="8" t="s">
+      <c r="I14" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.15">
-      <c r="A16" s="8" t="s">
+      <c r="D15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.15">
-      <c r="A17" s="8" t="s">
+      <c r="E16" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="D17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.15">
-      <c r="A18" s="8" t="s">
+      <c r="I17" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.15">
-      <c r="A19" s="8" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="6" t="s">
+      <c r="E19" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="36" t="s">
+      <c r="E20" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.15">
-      <c r="A21" s="6" t="s">
+      <c r="I20" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="9" t="s">
+      <c r="E21" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.15">
-      <c r="A22" s="10" t="s">
+      <c r="I21" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.15">
-      <c r="A23" s="10" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.15">
-      <c r="A24" s="10" t="s">
+      <c r="E23" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.15">
-      <c r="A25" s="9" t="s">
+      <c r="E24" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.15">
-      <c r="A26" s="9" t="s">
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.15">
-      <c r="A27" s="6" t="s">
+      <c r="D26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="13.15">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="11" t="s">
         <v>65</v>
       </c>
@@ -4669,42 +4668,42 @@
       <c r="D28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
+      <c r="E28" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="E29" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.15">
+      <c r="I29" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="11" t="s">
         <v>69</v>
       </c>
@@ -4717,17 +4716,17 @@
       <c r="D30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="13.15">
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="11" t="s">
         <v>72</v>
       </c>
@@ -4740,17 +4739,17 @@
       <c r="D31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.15">
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="11" t="s">
         <v>75</v>
       </c>
@@ -4763,86 +4762,86 @@
       <c r="D32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.15">
-      <c r="A33" s="12" t="s">
+      <c r="E32" s="23"/>
+      <c r="F32" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="13.15">
-      <c r="A34" s="12" t="s">
+      <c r="D33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="13.15">
-      <c r="A35" s="12" t="s">
+      <c r="E34" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.15">
+      <c r="D35" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="11" t="s">
         <v>81</v>
       </c>
@@ -4855,17 +4854,17 @@
       <c r="D36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="13.15">
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="11" t="s">
         <v>84</v>
       </c>
@@ -4878,17 +4877,17 @@
       <c r="D37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="13.15">
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="11" t="s">
         <v>87</v>
       </c>
@@ -4901,17 +4900,17 @@
       <c r="D38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="13.15">
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="11" t="s">
         <v>91</v>
       </c>
@@ -4924,17 +4923,17 @@
       <c r="D39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="13.15">
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="11" t="s">
         <v>94</v>
       </c>
@@ -4947,17 +4946,17 @@
       <c r="D40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="13.15">
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="11" t="s">
         <v>97</v>
       </c>
@@ -4970,36 +4969,36 @@
       <c r="D41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="13.15">
-      <c r="A42" s="12" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="6" t="s">
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5016,19 +5015,19 @@
       <c r="D43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23" t="s">
         <v>237</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="13.15">
+      <c r="I43" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="11" t="s">
         <v>108</v>
       </c>
@@ -5041,17 +5040,17 @@
       <c r="D44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="13.15">
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="11" t="s">
         <v>110</v>
       </c>
@@ -5064,17 +5063,17 @@
       <c r="D45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="13.15">
+      <c r="E45" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="11" t="s">
         <v>113</v>
       </c>
@@ -5087,17 +5086,17 @@
       <c r="D46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="13.15">
+      <c r="E46" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="11" t="s">
         <v>252</v>
       </c>
@@ -5110,17 +5109,17 @@
       <c r="D47" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="13.15">
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="11" t="s">
         <v>121</v>
       </c>
@@ -5133,17 +5132,17 @@
       <c r="D48" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="26.25">
+      <c r="E48" s="23"/>
+      <c r="F48" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="11" t="s">
         <v>123</v>
       </c>
@@ -5153,20 +5152,20 @@
       <c r="C49" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="13.15">
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="11" t="s">
         <v>126</v>
       </c>
@@ -5179,17 +5178,17 @@
       <c r="D50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.15">
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="11" t="s">
         <v>130</v>
       </c>
@@ -5202,17 +5201,17 @@
       <c r="D51" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="13.15">
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="11" t="s">
         <v>133</v>
       </c>
@@ -5225,17 +5224,17 @@
       <c r="D52" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="13.15">
+      <c r="E52" s="23"/>
+      <c r="F52" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="11" t="s">
         <v>136</v>
       </c>
@@ -5248,17 +5247,17 @@
       <c r="D53" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="13.15">
+      <c r="E53" s="23"/>
+      <c r="F53" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="11" t="s">
         <v>139</v>
       </c>
@@ -5271,18 +5270,18 @@
       <c r="D54" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="13.15">
-      <c r="A55" s="12" t="s">
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="11" t="s">
         <v>141</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -5292,17 +5291,17 @@
       <c r="D55" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="26.25">
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="11" t="s">
         <v>143</v>
       </c>
@@ -5312,20 +5311,20 @@
       <c r="C56" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="13.15">
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="11" t="s">
         <v>146</v>
       </c>
@@ -5338,21 +5337,21 @@
       <c r="D57" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="13.15">
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -5361,17 +5360,17 @@
       <c r="D58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="13.15">
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="11" t="s">
         <v>152</v>
       </c>
@@ -5384,17 +5383,17 @@
       <c r="D59" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="13.15">
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="11" t="s">
         <v>155</v>
       </c>
@@ -5407,17 +5406,17 @@
       <c r="D60" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.15">
+      <c r="E60" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="11" t="s">
         <v>158</v>
       </c>
@@ -5430,21 +5429,21 @@
       <c r="D61" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="13.15">
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="7" t="s">
         <v>163</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -5453,17 +5452,17 @@
       <c r="D62" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="13.15">
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="11" t="s">
         <v>164</v>
       </c>
@@ -5476,17 +5475,17 @@
       <c r="D63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.15">
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="11" t="s">
         <v>167</v>
       </c>
@@ -5499,21 +5498,21 @@
       <c r="D64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="13.15">
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>255</v>
       </c>
       <c r="C65" s="11" t="s">
@@ -5522,127 +5521,141 @@
       <c r="D65" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="13.15">
-      <c r="A66" s="12" t="s">
+      <c r="E65" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="13.15">
-      <c r="A67" s="21" t="s">
+      <c r="E66" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D67" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23" t="s">
-        <v>237</v>
-      </c>
+      <c r="D67" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:9" ht="13.15">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G72" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="19" t="s">
+      <c r="G72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="13.9">
-      <c r="A73" s="17">
+      <c r="A73" s="3">
         <f>COUNTIF(A2:A71,"*")</f>
-        <v>66</v>
-      </c>
-      <c r="E73" s="17">
+        <v>67</v>
+      </c>
+      <c r="E73" s="3">
         <f>COUNTIF(E2:E71,"*")</f>
         <v>16</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="3">
         <f t="shared" ref="F73:G73" si="0">COUNTIF(F2:F71,"*")</f>
         <v>8</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="3">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="I73" s="17">
+        <v>43</v>
+      </c>
+      <c r="I73" s="3">
         <f>COUNTIF(I2:I67,"*")</f>
         <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="E74" s="16"/>
+      <c r="E74" s="2"/>
     </row>
     <row r="76" spans="1:9" ht="13.15">
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="4">
         <f>SUM(E73:G73)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
-    <hyperlink ref="B13" r:id="rId3"/>
-    <hyperlink ref="B58" r:id="rId4"/>
-    <hyperlink ref="B62" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>